--- a/graph_generation/results_prelim/gpt3.5/level_9/k_1.xlsx
+++ b/graph_generation/results_prelim/gpt3.5/level_9/k_1.xlsx
@@ -8,13 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="o_10" sheetId="1" r:id="rId1"/>
+    <sheet name="o_20" sheetId="2" r:id="rId2"/>
+    <sheet name="o_20_jumbled" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>prompt</t>
   </si>
@@ -26,6 +28,9 @@
   </si>
   <si>
     <t>evaluator_response</t>
+  </si>
+  <si>
+    <t>evaluator_partial_correctness</t>
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 10 nodes labelled A to J. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
@@ -49,38 +54,178 @@
  Given these examples, answer the following quesiton.
 is the following a valid eulerian graph, if traversal is started from 1?
    A B C D E F G H I J
- A 0 1 0 0 0 0 0 0 0 0
+ A 0 1 1 0 0 0 0 0 0 1
  B 1 0 1 0 0 0 0 0 0 0
- C 0 1 0 1 0 0 0 0 0 0
- D 0 0 1 0 1 0 0 1 0 1
- E 0 0 0 1 0 1 1 1 0 0
- F 0 0 0 0 1 0 1 0 0 0
- G 0 0 0 0 1 1 0 0 0 0
- H 0 0 0 1 1 0 0 0 1 1
- I 0 0 0 0 0 0 0 1 0 1
- J 0 0 0 1 0 0 0 1 1 0
+ C 1 1 0 1 0 1 0 0 1 0
+ D 0 0 1 0 1 0 0 0 0 0
+ E 0 0 0 1 0 1 1 0 0 1
+ F 0 0 1 0 1 0 1 0 0 1
+ G 0 0 0 0 1 1 0 1 0 1
+ H 0 0 0 0 0 0 1 0 1 0
+ I 0 0 1 0 0 0 0 1 0 0
+ J 1 0 0 0 1 1 1 0 0 0
     </t>
   </si>
   <si>
     <t>This is a valid eulerian graph</t>
   </si>
   <si>
-    <t>To determine if the given graph is a valid Eulerian graph, we need to check if every vertex has an even degree. 
-Starting from vertex 1 (B), let's check the degrees of each vertex:
-Vertex A: Degree = 1
-Vertex B: Degree = 1
-Vertex C: Degree = 2
-Vertex D: Degree = 4
-Vertex E: Degree = 4
-Vertex F: Degree = 2
-Vertex G: Degree = 2
-Vertex H: Degree = 4
-Vertex I: Degree = 2
-Vertex J: Degree = 3
-Since not all vertices have an even degree, the given graph is not a valid Eulerian graph if the traversal is started from vertex 1.</t>
+    <t>To determine whether the given graph is a valid eulerian graph, we can use the following criteria:
+1. All nodes must have an even degree (i.e., the sum of connections of each node must be even). 
+If all the nodes in the graph satisfy this criterion, then the graph is eulerian. If there are exactly two nodes with odd degrees, then the graph has an eulerian path, but not an eulerian circuit. If any other node has an odd degree, then the graph is not eulerian.
+Let's analyze the given graph:
+A has a degree of 3, which is odd.
+B has a degree of 2, which is even.
+C has a degree of 5, which is odd.
+D has a degree of 2, which is even.
+E has a degree of 4, which is even.
+F has a degree of 4, which is even.
+G has a degree of 4, which is even.
+H has a degree of 2, which is even.
+I has a degree of 3, which is odd.
+J has a degree of 4, which is even.
+In this graph, A, C, and I have odd degrees, which means it is not a valid eulerian graph.
+Therefore, the answer to the question is: No, this graph is not a valid eulerian graph if traversal is started from 1.</t>
   </si>
   <si>
     <t>Wrong</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 20 nodes labelled A to T. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+Consider some examples
+Example 1: is the following a valid eulerian graph, if traversal is started from 0?
+   A B C D E F G H I J K L M N O P Q R S
+ A 0 0 0 0 0 0 1 1 0 0 0 1 0 1 0 0 0 1 0
+ B 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0
+ C 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 1 0 1 0 0 1 0 1 1 0 0 0 1 1
+ E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ F 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ H 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ I 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0
+ J 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1
+ K 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ L 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0
+ M 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0
+ N 1 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1
+ O 0 1 0 0 0 0 1 1 0 0 0 0 0 1 0 1 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0
+ R 1 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ S 0 0 0 1 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0
+Solution: This is not a valid eulerian graph
+ Given these examples, answer the following quesiton.
+is the following a valid eulerian graph, if traversal is started from A?
+   A B C D E F G H I J K L M N O P Q R S T
+ A 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0
+ B 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0
+ D 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1
+ E 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 1
+ G 0 1 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0
+ I 0 1 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 1 0 1
+ J 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0
+ K 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 1
+ L 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0
+ M 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0
+ O 1 0 0 0 0 1 1 0 1 0 1 0 0 0 0 0 1 0 0 0
+ P 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0
+ R 1 0 0 0 0 1 0 0 1 1 0 0 0 1 0 0 0 0 0 0
+ S 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ T 0 0 0 1 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t>This is not a valid eulerian graph</t>
+  </si>
+  <si>
+    <t>To determine if the graph is a valid eulerian graph, we need to check if each vertex has an even degree.
+Counting the degree of each vertex:
+- Vertex A has a degree of 3
+- Vertex B has a degree of 4
+- Vertex C has a degree of 3
+- Vertex D has a degree of 5
+- Vertex E has a degree of 2
+- Vertex F has a degree of 4
+- Vertex G has a degree of 4
+- Vertex H has a degree of 2
+- Vertex I has a degree of 7
+- Vertex J has a degree of 3
+- Vertex K has a degree of 4
+- Vertex L has a degree of 2
+- Vertex M has a degree of 1
+- Vertex N has a degree of 2
+- Vertex O has a degree of 6
+- Vertex P has a degree of 2
+- Vertex Q has a degree of 3
+- Vertex R has a degree of 4
+- Vertex S has a degree of 1
+- Vertex T has a degree of 4
+From the given degrees, we can see that Vertex M and Vertex S have odd degrees. Therefore, the graph is not a valid eulerian graph.</t>
+  </si>
+  <si>
+    <t>Correct</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 20 nodes labelled A to T. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+Consider some examples
+Example 1: is the following a valid eulerian graph, if traversal is started from 0?
+   A B C D E F G H I J K L M N O P Q R S
+ A 0 0 0 0 0 0 1 1 0 0 0 1 0 1 0 0 0 1 0
+ B 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0
+ C 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 1 0 1 0 0 1 0 1 1 0 0 0 1 1
+ E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ F 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ H 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ I 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0
+ J 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1
+ K 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ L 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0
+ M 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0
+ N 1 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1
+ O 0 1 0 0 0 0 1 1 0 0 0 0 0 1 0 1 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0
+ R 1 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ S 0 0 0 1 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0
+Solution: This is not a valid eulerian graph
+ Given these examples, answer the following quesiton.
+is the following a valid eulerian graph, if traversal is started from A?
+   A B C D E F G H I J K L M N O P Q R S T
+ A 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ B 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0
+ C 1 0 0 0 1 1 0 0 0 0 0 1 1 0 1 0 0 0 0 0
+ D 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 1 0
+ E 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
+ H 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0
+ K 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ L 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1
+ O 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 1
+ P 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0
+ Q 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 0 0
+ R 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ S 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t>This is not a valid Eulerian graph if the traversal is started from A. In an Eulerian graph, every vertex must have an even degree. In this graph, vertices D, E, F, H, J, L, M, N, O, Q, S have an odd degree, which violates the necessary condition for an Eulerian graph.</t>
   </si>
 </sst>
 </file>
@@ -438,13 +583,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,19 +602,119 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
